--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,18 +39,6 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>нет данных</t>
-  </si>
-  <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>доплатить</t>
-  </si>
-  <si>
     <t>начислены пени за 86 дней 1500х 86х0,1%=129,00</t>
   </si>
   <si>
@@ -64,6 +46,30 @@
   </si>
   <si>
     <t>электриком</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -71,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -190,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -203,7 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -224,12 +244,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,13 +254,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,407 +597,439 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43281</v>
+        <v>43514</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>9115</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>10400</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>5867</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43464</v>
+      <c r="C3" s="3">
+        <v>6668</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>43562</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10400</v>
+        <v>10935</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>1285</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
+        <f>SUM(C4,-C2)</f>
+        <v>535</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f>D4*E4</f>
-        <v>5782.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <v>2444.9500000000003</v>
+      </c>
+      <c r="G4" s="23">
+        <f>SUM(F4,F5)</f>
+        <v>3608.88</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>6668</v>
+        <v>7155</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>801</v>
+        <f>SUM(C5,-C3)</f>
+        <v>487</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f>D5*E5</f>
-        <v>1882.3500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43514</v>
+        <v>1163.93</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>43684</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="C6" s="3">
+        <v>11549</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>614</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>2756.86</v>
+      </c>
+      <c r="G6" s="23">
+        <f>SUM(F6,F7)</f>
+        <v>3490.7200000000003</v>
+      </c>
+      <c r="H6" s="23">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43562</v>
+      <c r="C7" s="3">
+        <v>7457</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>302</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>733.86</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>43749</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>10935</v>
+      <c r="C8" s="11">
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C4)</f>
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
-        <v>2444.9500000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G8" s="23">
+        <f>SUM(F8,F9)</f>
+        <v>3000</v>
+      </c>
+      <c r="H8" s="23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>7155</v>
+      <c r="C9" s="11">
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C5)</f>
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>1163.93</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43562</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="A10" s="19">
+        <v>43836</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12254</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
+      </c>
       <c r="F10" s="6">
-        <v>1.1200000000000001</v>
+        <v>1500</v>
+      </c>
+      <c r="G10" s="23">
+        <f>SUM(F10,F11)</f>
+        <v>1500</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>43684</v>
-      </c>
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>11549</v>
+        <v>7989</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C8)</f>
-        <v>614</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>2756.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="23">
+        <f>SUM(G2:G11)</f>
+        <v>11599.6</v>
+      </c>
+      <c r="H12" s="23">
+        <f>SUM(H2:H11)</f>
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>43836</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="23">
+        <v>129</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43836</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="23">
+        <f>SUM(G12:G14)</f>
+        <v>11728.6</v>
+      </c>
+      <c r="H15" s="23">
+        <f>SUM(H12:H14)</f>
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
+        <f>SUM(H15,-G15)</f>
+        <v>281.39999999999964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>43869</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13488</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
-        <v>7457</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12,-C9)</f>
-        <v>302</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>733.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14">
-        <v>-90.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43749</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C18" s="14">
+        <v>8516</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>43836</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12254</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7989</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>43836</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>43869</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>13488</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>8516</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B18:D18"/>
+  <mergeCells count="2">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -42,12 +42,6 @@
     <t>начислены пени за 86 дней 1500х 86х0,1%=129,00</t>
   </si>
   <si>
-    <t xml:space="preserve">показания сняты </t>
-  </si>
-  <si>
-    <t>электриком</t>
-  </si>
-  <si>
     <t>День/ ночь</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>итого с пенями</t>
   </si>
   <si>
@@ -70,6 +61,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>начислены пени за 152 дня просрочки 5236,40х112х0,1%=586,48</t>
   </si>
 </sst>
 </file>
@@ -79,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +128,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -244,6 +248,40 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,43 +290,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +598,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A19" sqref="A19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>5</v>
@@ -634,13 +635,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,10 +657,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23">
-        <v>1500</v>
-      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -672,11 +671,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="13">
         <v>43562</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -696,16 +695,16 @@
         <f>D4*E4</f>
         <v>2444.9500000000003</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="17">
         <f>SUM(F4,F5)</f>
         <v>3608.88</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="17">
         <v>2110</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -723,13 +722,13 @@
         <f>D5*E5</f>
         <v>1163.93</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="13">
         <v>43684</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -749,16 +748,16 @@
         <f>D6*E6</f>
         <v>2756.86</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <f>SUM(F6,F7)</f>
         <v>3490.7200000000003</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <v>3400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -776,11 +775,11 @@
         <f>D7*E7</f>
         <v>733.86</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="13">
         <v>43749</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -798,16 +797,16 @@
       <c r="F8" s="6">
         <v>3000</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <f>SUM(F8,F9)</f>
         <v>3000</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -821,11 +820,11 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="13">
         <v>43836</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -843,16 +842,16 @@
       <c r="F10" s="6">
         <v>1500</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <f>SUM(F10,F11)</f>
         <v>1500</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,145 +865,182 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="23">
-        <f>SUM(G2:G11)</f>
-        <v>11599.6</v>
-      </c>
-      <c r="H12" s="23">
-        <f>SUM(H2:H11)</f>
-        <v>11510</v>
-      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>43836</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>129</v>
+      </c>
+      <c r="G12" s="17">
+        <v>129</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43836</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="23">
-        <v>129</v>
-      </c>
-      <c r="H13" s="23"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43836</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="13">
+        <v>43990</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13161</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C10)</f>
+        <v>907</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f>PRODUCT(D14,E14)</f>
+        <v>4072.4300000000003</v>
+      </c>
+      <c r="G14" s="17">
+        <f>SUM(F14,F15)</f>
+        <v>5236.4000000000005</v>
+      </c>
+      <c r="H14" s="17">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8468</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C11)</f>
+        <v>479</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>PRODUCT(D15,E15)</f>
+        <v>1163.97</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>43990</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="23">
-        <f>SUM(G12:G14)</f>
-        <v>11728.6</v>
-      </c>
-      <c r="H15" s="23">
-        <f>SUM(H12:H14)</f>
-        <v>12010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
-        <f>SUM(H15,-G15)</f>
-        <v>281.39999999999964</v>
-      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>586.48</v>
+      </c>
+      <c r="G16" s="17">
+        <v>586.48</v>
+      </c>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>43869</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>13488</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="17">
+        <f>SUM(G2:G16)</f>
+        <v>17551.48</v>
+      </c>
+      <c r="H17" s="17">
+        <f>SUM(H2:H16)</f>
+        <v>15760</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14">
-        <v>8516</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
+        <f>SUM(H17,-G17)</f>
+        <v>-1791.4799999999996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1026,14 +1062,30 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43836</v>
       </c>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -216,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -251,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,23 +887,55 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="G19" s="3">
-        <f>SUM(G2:G18)</f>
-        <v>23501.38</v>
-      </c>
-      <c r="H19" s="3">
-        <f>SUM(H2:H18)</f>
-        <v>21760</v>
+      <c r="A19" s="4">
+        <v>44342</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C17)</f>
+        <v>1000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="8">
+        <f>D19*E19</f>
+        <v>4710</v>
+      </c>
+      <c r="G19" s="8">
+        <f>SUM(F19,F20)</f>
+        <v>6576.6</v>
+      </c>
+      <c r="H19" s="8">
+        <v>6577</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <f>SUM(H19,-G19)</f>
-        <v>-1741.380000000001</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C18)</f>
+        <v>732</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20" si="10">D20*E20</f>
+        <v>1866.6</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -912,8 +944,14 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3">
+        <f>SUM(G2:G18)</f>
+        <v>23501.38</v>
+      </c>
+      <c r="H21" s="3">
+        <f>SUM(H2:H18)</f>
+        <v>21760</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -922,8 +960,31 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f>SUM(H21,-G21)</f>
+        <v>-1741.380000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 18.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,12 +945,12 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="3">
-        <f>SUM(G2:G18)</f>
-        <v>23501.38</v>
+        <f>SUM(G2:G20)</f>
+        <v>30077.980000000003</v>
       </c>
       <c r="H21" s="3">
-        <f>SUM(H2:H18)</f>
-        <v>21760</v>
+        <f>SUM(H2:H20)</f>
+        <v>28337</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <f>SUM(H21,-G21)</f>
-        <v>-1741.380000000001</v>
+        <v>-1740.9800000000032</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 18.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,33 +938,55 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3">
-        <f>SUM(G2:G20)</f>
-        <v>30077.980000000003</v>
-      </c>
-      <c r="H21" s="3">
-        <f>SUM(H2:H20)</f>
-        <v>28337</v>
+      <c r="A21" s="4">
+        <v>44397</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C19)</f>
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="8">
+        <f>D21*E21</f>
+        <v>992</v>
+      </c>
+      <c r="G21" s="8">
+        <f>SUM(F21,F22)</f>
+        <v>1260</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1260</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <f>SUM(H21,-G21)</f>
-        <v>-1740.9800000000032</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C20)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22" si="11">D22*E22</f>
+        <v>268</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -973,8 +995,14 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3">
+        <f>SUM(G2:G20)</f>
+        <v>30077.980000000003</v>
+      </c>
+      <c r="H23" s="3">
+        <f>SUM(H2:H20)</f>
+        <v>28337</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -983,8 +1011,31 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f>SUM(H23,-G23)</f>
+        <v>-1740.9800000000032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43928</v>
+        <v>43562</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -897,7 +897,7 @@
         <v>15000</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" ref="D19:D26" si="10">SUM(C19,-C17)</f>
         <v>1000</v>
       </c>
       <c r="E19" s="3">
@@ -924,14 +924,14 @@
         <v>10000</v>
       </c>
       <c r="D20" s="3">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" si="10"/>
         <v>732</v>
       </c>
       <c r="E20" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20" si="10">D20*E20</f>
+        <f t="shared" ref="F20" si="11">D20*E20</f>
         <v>1866.6</v>
       </c>
       <c r="G20" s="8"/>
@@ -948,7 +948,7 @@
         <v>15200</v>
       </c>
       <c r="D21" s="3">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="E21" s="3">
@@ -975,67 +975,220 @@
         <v>10100</v>
       </c>
       <c r="D22" s="3">
-        <f>SUM(C22,-C20)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>2.68</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22" si="11">D22*E22</f>
+        <f t="shared" ref="F22" si="12">D22*E22</f>
         <v>268</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3">
-        <f>SUM(G2:G20)</f>
-        <v>30077.980000000003</v>
-      </c>
-      <c r="H23" s="3">
-        <f>SUM(H2:H20)</f>
-        <v>28337</v>
+      <c r="A23" s="4">
+        <v>44413</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="8">
+        <f>D23*E23</f>
+        <v>992</v>
+      </c>
+      <c r="G23" s="8">
+        <f>SUM(F23,F24)</f>
+        <v>1260</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1260</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <f>SUM(H23,-G23)</f>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24" si="13">D24*E24</f>
+        <v>268</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44432</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15550</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="8">
+        <f>D25*E25</f>
+        <v>744</v>
+      </c>
+      <c r="G25" s="8">
+        <f>SUM(F25,F26)</f>
+        <v>744</v>
+      </c>
+      <c r="H25" s="8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26" si="14">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44455</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>15700</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27:D28" si="15">SUM(C27,-C25)</f>
+        <v>150</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="8">
+        <f>D27*E27</f>
+        <v>744</v>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(F27,F28)</f>
+        <v>744</v>
+      </c>
+      <c r="H27" s="8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10200</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28" si="16">D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3">
+        <f>SUM(G2:G26)</f>
+        <v>33341.980000000003</v>
+      </c>
+      <c r="H29" s="3">
+        <f>SUM(H2:H26)</f>
+        <v>31601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f>SUM(H29,-G29)</f>
         <v>-1740.9800000000032</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,33 +1142,55 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3">
-        <f>SUM(G2:G26)</f>
-        <v>33341.980000000003</v>
-      </c>
-      <c r="H29" s="3">
-        <f>SUM(H2:H26)</f>
-        <v>31601</v>
+      <c r="A29" s="4">
+        <v>44480</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>15900</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29:D30" si="17">SUM(C29,-C27)</f>
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F29" s="8">
+        <f>D29*E29</f>
+        <v>992</v>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(F29,F30)</f>
+        <v>1260</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1260</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
-        <f>SUM(H29,-G29)</f>
-        <v>-1740.9800000000032</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10300</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30" si="18">D30*E30</f>
+        <v>268</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -1177,8 +1199,14 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="3">
+        <f>SUM(G2:G30)</f>
+        <v>35345.980000000003</v>
+      </c>
+      <c r="H31" s="3">
+        <f>SUM(H2:H30)</f>
+        <v>33605</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -1187,8 +1215,31 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <f>SUM(H31,-G31)</f>
+        <v>-1740.9800000000032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -55,21 +55,12 @@
   <si>
     <t>T2</t>
   </si>
-  <si>
-    <t>начислены пени</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
-  </si>
-  <si>
-    <t>начислены пени 152д</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +82,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,8 +137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,29 +459,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43514</v>
+        <v>43990</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>10400</v>
+        <v>13161</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>6668</v>
+        <v>8468</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -508,135 +489,135 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43562</v>
+        <v>44194</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>10935</v>
+        <v>14000</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
-        <v>535</v>
+        <f>SUM(C4,-C2)</f>
+        <v>839</v>
       </c>
       <c r="E4" s="3">
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2444.9500000000003</v>
+        <f>D4*E4</f>
+        <v>3951.69</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>3608.88</v>
+        <v>5991.69</v>
       </c>
       <c r="H4" s="8">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>7155</v>
+        <v>9268</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>487</v>
+        <f>SUM(C5,-C3)</f>
+        <v>800</v>
       </c>
       <c r="E5" s="3">
-        <v>2.39</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>1163.93</v>
+        <f t="shared" ref="F5" si="0">D5*E5</f>
+        <v>2039.9999999999998</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43684</v>
+        <v>44342</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>11549</v>
+        <v>15000</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
-        <v>614</v>
+        <f t="shared" ref="D6:D13" si="1">SUM(C6,-C4)</f>
+        <v>1000</v>
       </c>
       <c r="E6" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>2756.86</v>
+        <f>D6*E6</f>
+        <v>4710</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>3490.7200000000003</v>
+        <v>6576.6</v>
       </c>
       <c r="H6" s="8">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>7457</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>302</v>
+        <f t="shared" si="1"/>
+        <v>732</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>733.86</v>
+        <f t="shared" ref="F7" si="2">D7*E7</f>
+        <v>1866.6</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43749</v>
+        <v>44397</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>11549</v>
+        <v>15200</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f>D8*E8</f>
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="H8" s="8">
-        <v>3000</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,601 +626,325 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>7457</v>
+        <v>10100</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ref="F9" si="5">D9*E9</f>
-        <v>0</v>
+        <f t="shared" ref="F9" si="3">D9*E9</f>
+        <v>268</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43836</v>
+        <v>44413</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>12254</v>
+        <v>15400</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
-        <v>705</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>4.49</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f>D10*E10</f>
-        <v>3165.4500000000003</v>
+        <v>992</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>4458.21</v>
+        <v>1260</v>
       </c>
       <c r="H10" s="8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>7989</v>
+        <v>10200</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>532</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" ref="F11" si="7">D11*E11</f>
-        <v>1292.76</v>
+        <f t="shared" ref="F11" si="4">D11*E11</f>
+        <v>268</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43836</v>
+        <v>44432</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
+        <v>15550</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="8">
+        <f>D12*E12</f>
+        <v>744</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>744</v>
+      </c>
+      <c r="H12" s="8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10200</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="5">D13*E13</f>
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>129</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43836</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43990</v>
+        <v>44455</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>13161</v>
+        <v>15700</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C10)</f>
-        <v>907</v>
+        <f t="shared" ref="D14:D15" si="6">SUM(C14,-C12)</f>
+        <v>150</v>
       </c>
       <c r="E14" s="3">
-        <v>4.49</v>
+        <v>4.96</v>
       </c>
       <c r="F14" s="8">
         <f>D14*E14</f>
-        <v>4072.4300000000003</v>
+        <v>744</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>5236.4000000000005</v>
+        <v>744</v>
       </c>
       <c r="H14" s="8">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>8468</v>
+        <v>10200</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C11)</f>
-        <v>479</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ref="F15" si="8">D15*E15</f>
-        <v>1163.97</v>
+        <f t="shared" ref="F15" si="7">D15*E15</f>
+        <v>0</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43990</v>
+        <v>44480</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
+      <c r="C16" s="3">
+        <v>15900</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="8">SUM(C16,-C14)</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.96</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <f>D16*E16</f>
+        <v>992</v>
       </c>
       <c r="G16" s="8">
-        <v>586.48</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44194</v>
-      </c>
+        <f>SUM(F16,F17)</f>
+        <v>1260</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17" si="9">D17*E17</f>
+        <v>268</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44494</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
-        <v>14000</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM(C17,-C14)</f>
-        <v>839</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F17" s="8">
-        <f>D17*E17</f>
-        <v>3951.69</v>
-      </c>
-      <c r="G17" s="8">
-        <f>SUM(F17,F18)</f>
-        <v>5991.69</v>
-      </c>
-      <c r="H17" s="8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="3">
+        <v>16100</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="10">SUM(C18,-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="8">
+        <f>D18*E18</f>
+        <v>992</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>1260</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
-        <v>9268</v>
-      </c>
-      <c r="D18" s="3">
-        <f>SUM(C18,-C15)</f>
-        <v>800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18" si="9">D18*E18</f>
-        <v>2039.9999999999998</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44342</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" s="3">
-        <v>15000</v>
+        <v>10400</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D26" si="10">SUM(C19,-C17)</f>
-        <v>1000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F19" s="8">
-        <f>D19*E19</f>
-        <v>4710</v>
-      </c>
-      <c r="G19" s="8">
-        <f>SUM(F19,F20)</f>
-        <v>6576.6</v>
-      </c>
-      <c r="H19" s="8">
-        <v>6577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="10"/>
-        <v>732</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20" si="11">D20*E20</f>
-        <v>1866.6</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44397</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3">
-        <v>15200</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F21" s="8">
-        <f>D21*E21</f>
-        <v>992</v>
-      </c>
-      <c r="G21" s="8">
-        <f>SUM(F21,F22)</f>
-        <v>1260</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="D22" s="3">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E19" s="3">
         <v>2.68</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22" si="12">D22*E22</f>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19" si="11">D19*E19</f>
         <v>268</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="3">
+        <f>SUM(G2:G17)</f>
+        <v>17836.29</v>
+      </c>
+      <c r="H20" s="3">
+        <f>SUM(H2:H17)</f>
+        <v>17845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f>SUM(H20,-G20)</f>
+        <v>8.7099999999991269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44413</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3">
-        <v>15400</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F23" s="8">
-        <f>D23*E23</f>
-        <v>992</v>
-      </c>
-      <c r="G23" s="8">
-        <f>SUM(F23,F24)</f>
-        <v>1260</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10200</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24" si="13">D24*E24</f>
-        <v>268</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>44432</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15550</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F25" s="8">
-        <f>D25*E25</f>
-        <v>744</v>
-      </c>
-      <c r="G25" s="8">
-        <f>SUM(F25,F26)</f>
-        <v>744</v>
-      </c>
-      <c r="H25" s="8">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>10200</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" ref="F26" si="14">D26*E26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>44455</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15700</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:D28" si="15">SUM(C27,-C25)</f>
-        <v>150</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F27" s="8">
-        <f>D27*E27</f>
-        <v>744</v>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(F27,F28)</f>
-        <v>744</v>
-      </c>
-      <c r="H27" s="8">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10200</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" ref="F28" si="16">D28*E28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>44480</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>15900</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" ref="D29:D30" si="17">SUM(C29,-C27)</f>
-        <v>200</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F29" s="8">
-        <f>D29*E29</f>
-        <v>992</v>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(F29,F30)</f>
-        <v>1260</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10300</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" ref="F30" si="18">D30*E30</f>
-        <v>268</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3">
-        <f>SUM(G2:G30)</f>
-        <v>35345.980000000003</v>
-      </c>
-      <c r="H31" s="3">
-        <f>SUM(H2:H30)</f>
-        <v>33605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <f>SUM(H31,-G31)</f>
-        <v>-1740.9800000000032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/182ee.xlsx
+++ b/sputnik/personal/ee/182ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 16.12.2021\16.12.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 16.12.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,33 +898,55 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3">
-        <f>SUM(G2:G17)</f>
-        <v>17836.29</v>
-      </c>
-      <c r="H20" s="3">
-        <f>SUM(H2:H17)</f>
-        <v>17845</v>
+      <c r="A20" s="4">
+        <v>44550</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="12">SUM(C20,-C18)</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="8">
+        <f>D20*E20</f>
+        <v>992</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>1260</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1260</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <f>SUM(H20,-G20)</f>
-        <v>8.7099999999991269</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21" si="13">D21*E21</f>
+        <v>268</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -933,8 +955,14 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3">
+        <f>SUM(G2:G17)</f>
+        <v>17836.29</v>
+      </c>
+      <c r="H22" s="3">
+        <f>SUM(H2:H17)</f>
+        <v>17845</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -943,8 +971,31 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f>SUM(H22,-G22)</f>
+        <v>8.7099999999991269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
